--- a/Data-biology-1916238.xlsx
+++ b/Data-biology-1916238.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\欲求不满的渡鸦\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2FEBAC-8EA0-4008-B7BC-1AF7BD946303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1344F6D-F1FE-41B1-88D2-04BA773A09F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="630" windowWidth="13590" windowHeight="15450" activeTab="1" xr2:uid="{B19BA7A9-8200-4858-A160-D2D2C10CCA09}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{B19BA7A9-8200-4858-A160-D2D2C10CCA09}"/>
   </bookViews>
   <sheets>
     <sheet name="Foraging" sheetId="1" r:id="rId1"/>
@@ -168,8 +168,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -216,7 +216,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -232,19 +232,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -564,12 +558,12 @@
   <dimension ref="A1:J96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
     <col min="4" max="4" width="15.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.125" style="1" bestFit="1" customWidth="1"/>
@@ -635,13 +629,13 @@
       <c r="G2" s="1">
         <v>4</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="5">
         <v>498</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="5">
         <v>48</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="5">
         <v>2.67</v>
       </c>
     </row>
@@ -665,13 +659,13 @@
       <c r="G3" s="1">
         <v>4</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="5">
         <v>938</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="5">
         <v>31</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="5">
         <v>1.72</v>
       </c>
     </row>
@@ -695,13 +689,13 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="5">
         <v>1806</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="5">
         <v>80</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="5">
         <v>4.4400000000000004</v>
       </c>
     </row>
@@ -725,13 +719,13 @@
       <c r="G5" s="1">
         <v>15</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="5">
         <v>99</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="5">
         <v>17</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="5">
         <v>0.94</v>
       </c>
     </row>
@@ -755,13 +749,13 @@
       <c r="G6" s="1">
         <v>17</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="5">
         <v>82</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="5">
         <v>26</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="5">
         <v>1.44</v>
       </c>
     </row>
@@ -785,13 +779,13 @@
       <c r="G7" s="1">
         <v>20</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="5">
         <v>94</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="5">
         <v>57</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="5">
         <v>3.17</v>
       </c>
     </row>
@@ -815,13 +809,13 @@
       <c r="G8" s="1">
         <v>7</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="5">
         <v>242</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="5">
         <v>24</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="5">
         <v>1.33</v>
       </c>
     </row>
@@ -845,13 +839,13 @@
       <c r="G9" s="1">
         <v>2</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="5">
         <v>280</v>
       </c>
-      <c r="I9" s="1">
-        <v>5</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="I9" s="5">
+        <v>5</v>
+      </c>
+      <c r="J9" s="5">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -875,13 +869,13 @@
       <c r="G10" s="1">
         <v>12</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="5">
         <v>461</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="5">
         <v>9</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="5">
         <v>0.5</v>
       </c>
     </row>
@@ -907,13 +901,13 @@
       <c r="G11" s="1">
         <v>11</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="5">
         <v>45</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="5">
         <v>39</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="5">
         <v>2.17</v>
       </c>
     </row>
@@ -937,13 +931,13 @@
       <c r="G12" s="1">
         <v>16</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="5">
         <v>7</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="5">
         <v>30</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="5">
         <v>1.67</v>
       </c>
     </row>
@@ -967,13 +961,13 @@
       <c r="G13" s="1">
         <v>8</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="5">
         <v>15</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="5">
         <v>54</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="5">
         <v>3</v>
       </c>
     </row>
@@ -997,13 +991,13 @@
       <c r="G14" s="1">
         <v>4</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="5">
         <v>308</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="5">
         <v>58</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="5">
         <v>3.22</v>
       </c>
     </row>
@@ -1027,13 +1021,13 @@
       <c r="G15" s="1">
         <v>7</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="5">
         <v>233</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="5">
         <v>38</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="5">
         <v>2.11</v>
       </c>
     </row>
@@ -1057,13 +1051,13 @@
       <c r="G16" s="1">
         <v>10</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="5">
         <v>46</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="5">
         <v>19</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="5">
         <v>1.06</v>
       </c>
     </row>
@@ -1087,13 +1081,13 @@
       <c r="G17" s="1">
         <v>5</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="5">
         <v>11</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="5">
         <v>28</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="5">
         <v>1.56</v>
       </c>
     </row>
@@ -1117,13 +1111,13 @@
       <c r="G18" s="1">
         <v>11</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="5">
         <v>33</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="5">
         <v>11</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="5">
         <v>0.61</v>
       </c>
     </row>
@@ -1149,13 +1143,13 @@
       <c r="G19" s="1">
         <v>9</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="5">
         <v>162</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="5">
         <v>42.33</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="5">
         <v>2.35</v>
       </c>
     </row>
@@ -1179,13 +1173,13 @@
       <c r="G20" s="1">
         <v>7</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="5">
         <v>172</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="5">
         <v>33.71</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="5">
         <v>1.87</v>
       </c>
     </row>
@@ -1209,13 +1203,13 @@
       <c r="G21" s="1">
         <v>7</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="5">
         <v>179</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="5">
         <v>31.71</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="5">
         <v>1.76</v>
       </c>
     </row>
@@ -1239,13 +1233,13 @@
       <c r="G22" s="1">
         <v>10</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="5">
         <v>231</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="5">
         <v>22.4</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="5">
         <v>1.24</v>
       </c>
     </row>
@@ -1269,13 +1263,13 @@
       <c r="G23" s="1">
         <v>5</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="5">
         <v>88</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="5">
         <v>21.6</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="5">
         <v>1.2</v>
       </c>
     </row>
@@ -1299,13 +1293,13 @@
       <c r="G24" s="1">
         <v>8</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="5">
         <v>114</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="5">
         <v>26.75</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="5">
         <v>1.49</v>
       </c>
     </row>
@@ -1329,13 +1323,13 @@
       <c r="G25" s="1">
         <v>9</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="5">
         <v>137</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="5">
         <v>19.11</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="5">
         <v>1.06</v>
       </c>
     </row>
@@ -1359,13 +1353,13 @@
       <c r="G26" s="1">
         <v>7</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="5">
         <v>90</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="5">
         <v>50.86</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="5">
         <v>2.83</v>
       </c>
     </row>
@@ -1389,13 +1383,13 @@
       <c r="G27" s="1">
         <v>9</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="5">
         <v>72</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="5">
         <v>23.56</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="5">
         <v>1.31</v>
       </c>
     </row>
@@ -1419,13 +1413,13 @@
       <c r="G28" s="1">
         <v>13</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="5">
         <v>62</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="5">
         <v>26.23</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="5">
         <v>1.46</v>
       </c>
     </row>
@@ -1449,13 +1443,13 @@
       <c r="G29" s="1">
         <v>8</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="5">
         <v>68</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="5">
         <v>35.75</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="5">
         <v>1.99</v>
       </c>
     </row>
@@ -1479,13 +1473,13 @@
       <c r="G30" s="1">
         <v>10</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="5">
         <v>57</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="5">
         <v>27.5</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="5">
         <v>1.53</v>
       </c>
     </row>
@@ -1509,13 +1503,13 @@
       <c r="G31" s="1">
         <v>6</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="5">
         <v>73</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="5">
         <v>14.5</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="5">
         <v>0.81</v>
       </c>
     </row>
@@ -1539,13 +1533,13 @@
       <c r="G32" s="1">
         <v>3</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="5">
         <v>52</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="5">
         <v>21.33</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="5">
         <v>1.19</v>
       </c>
     </row>
@@ -1569,13 +1563,13 @@
       <c r="G33" s="1">
         <v>7</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="5">
         <v>23</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="5">
         <v>18.57</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="5">
         <v>1.03</v>
       </c>
     </row>
@@ -1599,13 +1593,13 @@
       <c r="G34" s="1">
         <v>5</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="5">
         <v>55</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="5">
         <v>24.2</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="5">
         <v>1.34</v>
       </c>
     </row>
@@ -1631,13 +1625,13 @@
       <c r="G35" s="1">
         <v>5</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="5">
         <v>86</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="5">
         <v>30.6</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35" s="5">
         <v>1.7</v>
       </c>
     </row>
@@ -1661,13 +1655,13 @@
       <c r="G36" s="1">
         <v>6</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="5">
         <v>124</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="5">
         <v>26.83</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36" s="5">
         <v>1.49</v>
       </c>
     </row>
@@ -1691,13 +1685,13 @@
       <c r="G37" s="1">
         <v>5</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="5">
         <v>110</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="5">
         <v>16.399999999999999</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37" s="5">
         <v>0.91</v>
       </c>
     </row>
@@ -1721,13 +1715,13 @@
       <c r="G38" s="1">
         <v>8</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="5">
         <v>80</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="5">
         <v>20.25</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38" s="5">
         <v>1.1299999999999999</v>
       </c>
     </row>
@@ -1751,13 +1745,13 @@
       <c r="G39" s="1">
         <v>10</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="5">
         <v>74</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="5">
         <v>15.4</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39" s="5">
         <v>0.86</v>
       </c>
     </row>
@@ -1781,13 +1775,13 @@
       <c r="G40" s="1">
         <v>10</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="5">
         <v>27</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="5">
         <v>31.6</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40" s="5">
         <v>1.76</v>
       </c>
     </row>
@@ -1811,13 +1805,13 @@
       <c r="G41" s="1">
         <v>13</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="5">
         <v>53</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="5">
         <v>17.850000000000001</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41" s="5">
         <v>0.99</v>
       </c>
     </row>
@@ -1841,13 +1835,13 @@
       <c r="G42" s="1">
         <v>2</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="5">
         <v>82</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="5">
         <v>34</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J42" s="5">
         <v>1.89</v>
       </c>
     </row>
@@ -1871,13 +1865,13 @@
       <c r="G43" s="1">
         <v>14</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="5">
         <v>123</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43" s="5">
         <v>18.43</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43" s="5">
         <v>1.02</v>
       </c>
     </row>
@@ -1901,13 +1895,13 @@
       <c r="G44" s="1">
         <v>14</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="5">
         <v>14</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="5">
         <v>30.71</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J44" s="5">
         <v>1.71</v>
       </c>
     </row>
@@ -1931,13 +1925,13 @@
       <c r="G45" s="1">
         <v>18</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="5">
         <v>10</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45" s="5">
         <v>13.28</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45" s="5">
         <v>0.74</v>
       </c>
     </row>
@@ -1961,13 +1955,13 @@
       <c r="G46" s="1">
         <v>11</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="5">
         <v>15</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46" s="5">
         <v>12.82</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46" s="5">
         <v>0.71</v>
       </c>
     </row>
@@ -1991,13 +1985,13 @@
       <c r="G47" s="1">
         <v>11</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="5">
         <v>24</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47" s="5">
         <v>73.36</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47" s="5">
         <v>4.08</v>
       </c>
     </row>
@@ -2021,13 +2015,13 @@
       <c r="G48" s="1">
         <v>10</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="5">
         <v>16</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="5">
         <v>31.5</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48" s="5">
         <v>1.75</v>
       </c>
     </row>
@@ -2051,13 +2045,13 @@
       <c r="G49" s="1">
         <v>10</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="5">
         <v>15</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="5">
         <v>24.9</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49" s="5">
         <v>1.38</v>
       </c>
     </row>
@@ -2081,13 +2075,13 @@
       <c r="G50" s="1">
         <v>10</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="5">
         <v>60</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50" s="5">
         <v>23.3</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J50" s="5">
         <v>1.29</v>
       </c>
     </row>
@@ -2113,13 +2107,13 @@
       <c r="G51" s="1">
         <v>9</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51" s="5">
         <v>646</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51" s="5">
         <v>26.11</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J51" s="5">
         <v>1.45</v>
       </c>
     </row>
@@ -2143,13 +2137,13 @@
       <c r="G52" s="1">
         <v>3</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52" s="5">
         <v>844</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52" s="5">
         <v>34.67</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J52" s="5">
         <v>1.93</v>
       </c>
     </row>
@@ -2173,13 +2167,13 @@
       <c r="G53" s="1">
         <v>3</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H53" s="5">
         <v>768</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53" s="5">
         <v>21</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J53" s="5">
         <v>1.17</v>
       </c>
     </row>
@@ -2203,13 +2197,13 @@
       <c r="G54" s="1">
         <v>5</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54" s="5">
         <v>754</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I54" s="5">
         <v>15</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J54" s="5">
         <v>0.83</v>
       </c>
     </row>
@@ -2233,13 +2227,13 @@
       <c r="G55" s="1">
         <v>15</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55" s="5">
         <v>20</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I55" s="5">
         <v>36.6</v>
       </c>
-      <c r="J55" s="1">
+      <c r="J55" s="5">
         <v>2.0299999999999998</v>
       </c>
     </row>
@@ -2263,13 +2257,13 @@
       <c r="G56" s="1">
         <v>14</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56" s="5">
         <v>119</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I56" s="5">
         <v>20.5</v>
       </c>
-      <c r="J56" s="1">
+      <c r="J56" s="5">
         <v>1.1399999999999999</v>
       </c>
     </row>
@@ -2293,13 +2287,13 @@
       <c r="G57" s="1">
         <v>17</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57" s="5">
         <v>104</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I57" s="5">
         <v>37.53</v>
       </c>
-      <c r="J57" s="1">
+      <c r="J57" s="5">
         <v>2.09</v>
       </c>
     </row>
@@ -2323,13 +2317,13 @@
       <c r="G58" s="1">
         <v>18</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H58" s="5">
         <v>153</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I58" s="5">
         <v>27</v>
       </c>
-      <c r="J58" s="1">
+      <c r="J58" s="5">
         <v>1.5</v>
       </c>
     </row>
@@ -2353,13 +2347,13 @@
       <c r="G59" s="1">
         <v>2</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59" s="5">
         <v>264</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I59" s="5">
         <v>6.5</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J59" s="5">
         <v>0.36</v>
       </c>
     </row>
@@ -2383,13 +2377,13 @@
       <c r="G60" s="1">
         <v>2</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H60" s="5">
         <v>232</v>
       </c>
-      <c r="I60" s="1">
-        <v>5</v>
-      </c>
-      <c r="J60" s="1">
+      <c r="I60" s="5">
+        <v>5</v>
+      </c>
+      <c r="J60" s="5">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -2413,13 +2407,13 @@
       <c r="G61" s="1">
         <v>5</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H61" s="5">
         <v>148</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I61" s="5">
         <v>5.2</v>
       </c>
-      <c r="J61" s="1">
+      <c r="J61" s="5">
         <v>0.28999999999999998</v>
       </c>
     </row>
@@ -2443,13 +2437,13 @@
       <c r="G62" s="1">
         <v>2</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62" s="5">
         <v>141</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62" s="5">
         <v>3.5</v>
       </c>
-      <c r="J62" s="1">
+      <c r="J62" s="5">
         <v>0.19</v>
       </c>
     </row>
@@ -2473,13 +2467,13 @@
       <c r="G63" s="1">
         <v>11</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63" s="5">
         <v>999</v>
       </c>
-      <c r="I63" s="1">
+      <c r="I63" s="5">
         <v>14.27</v>
       </c>
-      <c r="J63" s="1">
+      <c r="J63" s="5">
         <v>0.79</v>
       </c>
     </row>
@@ -2503,13 +2497,13 @@
       <c r="G64" s="1">
         <v>5</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H64" s="5">
         <v>1018</v>
       </c>
-      <c r="I64" s="1">
+      <c r="I64" s="5">
         <v>13.8</v>
       </c>
-      <c r="J64" s="1">
+      <c r="J64" s="5">
         <v>0.77</v>
       </c>
     </row>
@@ -2533,13 +2527,13 @@
       <c r="G65" s="1">
         <v>15</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H65" s="5">
         <v>1197</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I65" s="5">
         <v>11.27</v>
       </c>
-      <c r="J65" s="1">
+      <c r="J65" s="5">
         <v>0.63</v>
       </c>
     </row>
@@ -2563,13 +2557,13 @@
       <c r="G66" s="1">
         <v>7</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H66" s="5">
         <v>1242</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I66" s="5">
         <v>15.86</v>
       </c>
-      <c r="J66" s="1">
+      <c r="J66" s="5">
         <v>0.88</v>
       </c>
     </row>
@@ -2595,13 +2589,13 @@
       <c r="G67" s="1">
         <v>14</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H67" s="5">
         <v>89</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I67" s="5">
         <v>13.21</v>
       </c>
-      <c r="J67" s="1">
+      <c r="J67" s="5">
         <v>0.73</v>
       </c>
     </row>
@@ -2625,13 +2619,13 @@
       <c r="G68" s="1">
         <v>16</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H68" s="5">
         <v>97</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I68" s="5">
         <v>13.5</v>
       </c>
-      <c r="J68" s="1">
+      <c r="J68" s="5">
         <v>0.75</v>
       </c>
     </row>
@@ -2655,13 +2649,13 @@
       <c r="G69" s="1">
         <v>9</v>
       </c>
-      <c r="H69" s="1">
+      <c r="H69" s="5">
         <v>130</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I69" s="5">
         <v>17.670000000000002</v>
       </c>
-      <c r="J69" s="1">
+      <c r="J69" s="5">
         <v>0.98</v>
       </c>
     </row>
@@ -2685,13 +2679,13 @@
       <c r="G70" s="1">
         <v>8</v>
       </c>
-      <c r="H70" s="1">
+      <c r="H70" s="5">
         <v>1152</v>
       </c>
-      <c r="I70" s="1">
+      <c r="I70" s="5">
         <v>8.8800000000000008</v>
       </c>
-      <c r="J70" s="1">
+      <c r="J70" s="5">
         <v>0.49</v>
       </c>
     </row>
@@ -2715,13 +2709,13 @@
       <c r="G71" s="1">
         <v>2</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H71" s="5">
         <v>1528</v>
       </c>
-      <c r="I71" s="1">
-        <v>3</v>
-      </c>
-      <c r="J71" s="1">
+      <c r="I71" s="5">
+        <v>3</v>
+      </c>
+      <c r="J71" s="5">
         <v>0.17</v>
       </c>
     </row>
@@ -2745,13 +2739,13 @@
       <c r="G72" s="1">
         <v>22</v>
       </c>
-      <c r="H72" s="1">
+      <c r="H72" s="5">
         <v>33</v>
       </c>
-      <c r="I72" s="1">
+      <c r="I72" s="5">
         <v>19.27</v>
       </c>
-      <c r="J72" s="1">
+      <c r="J72" s="5">
         <v>1.07</v>
       </c>
     </row>
@@ -2775,13 +2769,13 @@
       <c r="G73" s="1">
         <v>14</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H73" s="5">
         <v>41</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I73" s="5">
         <v>21.93</v>
       </c>
-      <c r="J73" s="1">
+      <c r="J73" s="5">
         <v>1.22</v>
       </c>
     </row>
@@ -2805,13 +2799,13 @@
       <c r="G74" s="1">
         <v>24</v>
       </c>
-      <c r="H74" s="1">
+      <c r="H74" s="5">
         <v>17</v>
       </c>
-      <c r="I74" s="1">
+      <c r="I74" s="5">
         <v>24.04</v>
       </c>
-      <c r="J74" s="1">
+      <c r="J74" s="5">
         <v>1.34</v>
       </c>
     </row>
@@ -2835,13 +2829,13 @@
       <c r="G75" s="1">
         <v>4</v>
       </c>
-      <c r="H75" s="1">
+      <c r="H75" s="5">
         <v>926</v>
       </c>
-      <c r="I75" s="1">
+      <c r="I75" s="5">
         <v>12</v>
       </c>
-      <c r="J75" s="1">
+      <c r="J75" s="5">
         <v>0.67</v>
       </c>
     </row>
@@ -2865,13 +2859,13 @@
       <c r="G76" s="1">
         <v>8</v>
       </c>
-      <c r="H76" s="1">
+      <c r="H76" s="5">
         <v>30</v>
       </c>
-      <c r="I76" s="1">
+      <c r="I76" s="5">
         <v>15.13</v>
       </c>
-      <c r="J76" s="1">
+      <c r="J76" s="5">
         <v>0.84</v>
       </c>
     </row>
@@ -2895,13 +2889,13 @@
       <c r="G77" s="1">
         <v>5</v>
       </c>
-      <c r="H77" s="1">
+      <c r="H77" s="5">
         <v>60</v>
       </c>
-      <c r="I77" s="1">
+      <c r="I77" s="5">
         <v>24.2</v>
       </c>
-      <c r="J77" s="1">
+      <c r="J77" s="5">
         <v>1.34</v>
       </c>
     </row>
@@ -2925,13 +2919,13 @@
       <c r="G78" s="1">
         <v>23</v>
       </c>
-      <c r="H78" s="1">
+      <c r="H78" s="5">
         <v>11</v>
       </c>
-      <c r="I78" s="1">
+      <c r="I78" s="5">
         <v>11.22</v>
       </c>
-      <c r="J78" s="1">
+      <c r="J78" s="5">
         <v>0.62</v>
       </c>
     </row>
@@ -2955,13 +2949,13 @@
       <c r="G79" s="1">
         <v>5</v>
       </c>
-      <c r="H79" s="1">
+      <c r="H79" s="5">
         <v>301</v>
       </c>
-      <c r="I79" s="1">
+      <c r="I79" s="5">
         <v>5.6</v>
       </c>
-      <c r="J79" s="1">
+      <c r="J79" s="5">
         <v>0.31</v>
       </c>
     </row>
@@ -2985,13 +2979,13 @@
       <c r="G80" s="1">
         <v>16</v>
       </c>
-      <c r="H80" s="1">
+      <c r="H80" s="5">
         <v>99</v>
       </c>
-      <c r="I80" s="1">
+      <c r="I80" s="5">
         <v>6.5</v>
       </c>
-      <c r="J80" s="1">
+      <c r="J80" s="5">
         <v>0.36</v>
       </c>
     </row>
@@ -3015,13 +3009,13 @@
       <c r="G81" s="1">
         <v>5</v>
       </c>
-      <c r="H81" s="1">
+      <c r="H81" s="5">
         <v>454</v>
       </c>
-      <c r="I81" s="1">
+      <c r="I81" s="5">
         <v>12.4</v>
       </c>
-      <c r="J81" s="1">
+      <c r="J81" s="5">
         <v>0.69</v>
       </c>
     </row>
@@ -3045,13 +3039,13 @@
       <c r="G82" s="1">
         <v>12</v>
       </c>
-      <c r="H82" s="1">
+      <c r="H82" s="5">
         <v>118</v>
       </c>
-      <c r="I82" s="1">
+      <c r="I82" s="5">
         <v>5.08</v>
       </c>
-      <c r="J82" s="1">
+      <c r="J82" s="5">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -3077,13 +3071,13 @@
       <c r="G83" s="1">
         <v>6</v>
       </c>
-      <c r="H83" s="1">
+      <c r="H83" s="5">
         <v>8</v>
       </c>
-      <c r="I83" s="1">
+      <c r="I83" s="5">
         <v>8</v>
       </c>
-      <c r="J83" s="1">
+      <c r="J83" s="5">
         <v>0.44</v>
       </c>
     </row>
@@ -3107,13 +3101,13 @@
       <c r="G84" s="1">
         <v>8</v>
       </c>
-      <c r="H84" s="1">
+      <c r="H84" s="5">
         <v>43</v>
       </c>
-      <c r="I84" s="1">
+      <c r="I84" s="5">
         <v>20.5</v>
       </c>
-      <c r="J84" s="1">
+      <c r="J84" s="5">
         <v>1.1399999999999999</v>
       </c>
     </row>
@@ -3137,13 +3131,13 @@
       <c r="G85" s="1">
         <v>14</v>
       </c>
-      <c r="H85" s="1">
+      <c r="H85" s="5">
         <v>59</v>
       </c>
-      <c r="I85" s="1">
+      <c r="I85" s="5">
         <v>11.57</v>
       </c>
-      <c r="J85" s="1">
+      <c r="J85" s="5">
         <v>0.64</v>
       </c>
     </row>
@@ -3167,13 +3161,13 @@
       <c r="G86" s="1">
         <v>7</v>
       </c>
-      <c r="H86" s="1">
+      <c r="H86" s="5">
         <v>25</v>
       </c>
-      <c r="I86" s="1">
+      <c r="I86" s="5">
         <v>19.29</v>
       </c>
-      <c r="J86" s="1">
+      <c r="J86" s="5">
         <v>1.07</v>
       </c>
     </row>
@@ -3199,13 +3193,13 @@
       <c r="G87" s="1">
         <v>9</v>
       </c>
-      <c r="H87" s="1">
+      <c r="H87" s="5">
         <v>10</v>
       </c>
-      <c r="I87" s="1">
+      <c r="I87" s="5">
         <v>11.78</v>
       </c>
-      <c r="J87" s="1">
+      <c r="J87" s="5">
         <v>0.65</v>
       </c>
     </row>
@@ -3229,13 +3223,13 @@
       <c r="G88" s="1">
         <v>4</v>
       </c>
-      <c r="H88" s="1">
+      <c r="H88" s="5">
         <v>18</v>
       </c>
-      <c r="I88" s="1">
+      <c r="I88" s="5">
         <v>27.75</v>
       </c>
-      <c r="J88" s="1">
+      <c r="J88" s="5">
         <v>1.54</v>
       </c>
     </row>
@@ -3259,13 +3253,13 @@
       <c r="G89" s="1">
         <v>8</v>
       </c>
-      <c r="H89" s="1">
+      <c r="H89" s="5">
         <v>20</v>
       </c>
-      <c r="I89" s="1">
+      <c r="I89" s="5">
         <v>8.3800000000000008</v>
       </c>
-      <c r="J89" s="1">
+      <c r="J89" s="5">
         <v>0.47</v>
       </c>
     </row>
@@ -3289,13 +3283,13 @@
       <c r="G90" s="1">
         <v>2</v>
       </c>
-      <c r="H90" s="1">
+      <c r="H90" s="5">
         <v>28</v>
       </c>
-      <c r="I90" s="1">
+      <c r="I90" s="5">
         <v>10</v>
       </c>
-      <c r="J90" s="1">
+      <c r="J90" s="5">
         <v>0.56000000000000005</v>
       </c>
     </row>
@@ -3321,13 +3315,13 @@
       <c r="G91" s="1">
         <v>6</v>
       </c>
-      <c r="H91" s="1">
+      <c r="H91" s="5">
         <v>29</v>
       </c>
-      <c r="I91" s="1">
+      <c r="I91" s="5">
         <v>29.83</v>
       </c>
-      <c r="J91" s="1">
+      <c r="J91" s="5">
         <v>1.66</v>
       </c>
     </row>
@@ -3351,13 +3345,13 @@
       <c r="G92" s="1">
         <v>6</v>
       </c>
-      <c r="H92" s="1">
+      <c r="H92" s="5">
         <v>48</v>
       </c>
-      <c r="I92" s="1">
+      <c r="I92" s="5">
         <v>34.67</v>
       </c>
-      <c r="J92" s="1">
+      <c r="J92" s="5">
         <v>1.93</v>
       </c>
     </row>
@@ -3381,13 +3375,13 @@
       <c r="G93" s="1">
         <v>4</v>
       </c>
-      <c r="H93" s="1">
+      <c r="H93" s="5">
         <v>1133</v>
       </c>
-      <c r="I93" s="1">
+      <c r="I93" s="5">
         <v>35.75</v>
       </c>
-      <c r="J93" s="1">
+      <c r="J93" s="5">
         <v>1.99</v>
       </c>
     </row>
@@ -3411,13 +3405,13 @@
       <c r="G94" s="1">
         <v>4</v>
       </c>
-      <c r="H94" s="1">
+      <c r="H94" s="5">
         <v>1180</v>
       </c>
-      <c r="I94" s="1">
+      <c r="I94" s="5">
         <v>30.75</v>
       </c>
-      <c r="J94" s="1">
+      <c r="J94" s="5">
         <v>1.71</v>
       </c>
     </row>
@@ -3443,13 +3437,13 @@
       <c r="G95" s="1">
         <v>2</v>
       </c>
-      <c r="H95" s="1">
+      <c r="H95" s="5">
         <v>65</v>
       </c>
-      <c r="I95" s="1">
-        <v>3</v>
-      </c>
-      <c r="J95" s="1">
+      <c r="I95" s="5">
+        <v>3</v>
+      </c>
+      <c r="J95" s="5">
         <v>0.17</v>
       </c>
     </row>
@@ -3473,13 +3467,13 @@
       <c r="G96" s="1">
         <v>1</v>
       </c>
-      <c r="H96" s="1">
+      <c r="H96" s="5">
         <v>123</v>
       </c>
-      <c r="I96" s="1">
+      <c r="I96" s="5">
         <v>51</v>
       </c>
-      <c r="J96" s="1">
+      <c r="J96" s="5">
         <v>2.83</v>
       </c>
     </row>
@@ -3507,7 +3501,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3517,9 +3511,10 @@
     <col min="3" max="3" width="15.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="7" customWidth="1"/>
     <col min="7" max="7" width="10.625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="9" style="7"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="90" x14ac:dyDescent="0.2">
@@ -3538,13 +3533,13 @@
       <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3564,7 +3559,7 @@
       <c r="E2" s="1">
         <v>7</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>29</v>
       </c>
       <c r="G2" s="1">
@@ -3588,7 +3583,7 @@
       <c r="E3" s="1">
         <v>3</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>18</v>
       </c>
       <c r="G3" s="1">
@@ -3612,7 +3607,7 @@
       <c r="E4" s="1">
         <v>13</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>19</v>
       </c>
       <c r="G4" s="1">
@@ -3636,7 +3631,7 @@
       <c r="E5" s="1">
         <v>4</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>12</v>
       </c>
       <c r="G5" s="1">
@@ -3662,7 +3657,7 @@
       <c r="E6" s="1">
         <v>6</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>29</v>
       </c>
       <c r="G6" s="1">
@@ -3686,7 +3681,7 @@
       <c r="E7" s="1">
         <v>8</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>14</v>
       </c>
       <c r="G7" s="1">
@@ -3710,7 +3705,7 @@
       <c r="E8" s="1">
         <v>11</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>26</v>
       </c>
       <c r="G8" s="1">
@@ -3734,7 +3729,7 @@
       <c r="E9" s="1">
         <v>12</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>20</v>
       </c>
       <c r="G9" s="1">
@@ -3760,7 +3755,7 @@
       <c r="E10" s="1">
         <v>4</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>19</v>
       </c>
       <c r="G10" s="1">
@@ -3784,7 +3779,7 @@
       <c r="E11" s="1">
         <v>14</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>26</v>
       </c>
       <c r="G11" s="1">
@@ -3808,7 +3803,7 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>0</v>
       </c>
       <c r="G12" s="1">
@@ -3832,7 +3827,7 @@
       <c r="E13" s="1">
         <v>12</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>13</v>
       </c>
       <c r="G13" s="1">
@@ -3858,7 +3853,7 @@
       <c r="E14" s="1">
         <v>2</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>4</v>
       </c>
       <c r="G14" s="1">
@@ -3882,7 +3877,7 @@
       <c r="E15" s="1">
         <v>9</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>11</v>
       </c>
       <c r="G15" s="1">
@@ -3906,7 +3901,7 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>6</v>
       </c>
       <c r="G16" s="1">
@@ -3930,7 +3925,7 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>6</v>
       </c>
       <c r="G17" s="1">
@@ -3953,16 +3948,16 @@
       <c r="D18" s="1">
         <v>5</v>
       </c>
-      <c r="E18" s="5">
-        <v>5</v>
-      </c>
-      <c r="F18" s="9">
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
+      <c r="F18" s="7">
         <v>12</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="1">
         <v>6</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="7">
         <v>1.2</v>
       </c>
     </row>
@@ -3979,16 +3974,16 @@
       <c r="D19" s="1">
         <v>4</v>
       </c>
-      <c r="E19" s="5">
-        <v>2</v>
-      </c>
-      <c r="F19" s="9">
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="7">
         <v>7</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="1">
         <v>0</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="7">
         <v>0</v>
       </c>
     </row>
@@ -4005,16 +4000,16 @@
       <c r="D20" s="1">
         <v>2</v>
       </c>
-      <c r="E20" s="5">
-        <v>2</v>
-      </c>
-      <c r="F20" s="9">
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="7">
         <v>30</v>
       </c>
-      <c r="G20" s="5">
-        <v>2</v>
-      </c>
-      <c r="H20" s="6">
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="7">
         <v>1.5</v>
       </c>
     </row>
@@ -4031,16 +4026,16 @@
       <c r="D21" s="1">
         <v>3</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="1">
         <v>0</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="7">
         <v>0</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="1">
         <v>0</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="7">
         <v>0</v>
       </c>
     </row>
